--- a/medicine/Mort/Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica/Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica.xlsx
+++ b/medicine/Mort/Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica/Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tombes_de_personnalit%C3%A9s_li%C3%A9es_%C3%A0_l%27histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
+          <t>Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tombes de personnalités liées à l'histoire de Novi Sad, Petrovaradin, Sremski Karlovci et Sremska Kamenica (en serbe cyrillique : Гробна места са надгробним споменицима значајних личности из историје Новог Сада, Петроварадина, Сремских Карловаца, Сремске Каменице ; en serbe latin : Grobna mesta sa nadgrobnim spomenicima značajnih ličnosti iz istorije Novog Sada, Petrovaradina, Sremskih Karlovaca, Sremske Kamenice) sont situées sur le territoire de la Ville de Novi Sad et dans la municipalité de Sremski Karlovci, dans la province autonome de Voïvodine, en Serbie. En raison de leur valeur patrimoniale, elles sont inscrites sur la liste des monuments culturels protégés de la République de Serbie (identifiant n° SK 1592)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tombes de personnalités liées à l'histoire de Novi Sad, Petrovaradin, Sremski Karlovci et Sremska Kamenica (en serbe cyrillique : Гробна места са надгробним споменицима значајних личности из историје Новог Сада, Петроварадина, Сремских Карловаца, Сремске Каменице ; en serbe latin : Grobna mesta sa nadgrobnim spomenicima značajnih ličnosti iz istorije Novog Sada, Petrovaradina, Sremskih Karlovaca, Sremske Kamenice) sont situées sur le territoire de la Ville de Novi Sad et dans la municipalité de Sremski Karlovci, dans la province autonome de Voïvodine, en Serbie. En raison de leur valeur patrimoniale, elles sont inscrites sur la liste des monuments culturels protégés de la République de Serbie (identifiant n° SK 1592).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tombes_de_personnalit%C3%A9s_li%C3%A9es_%C3%A0_l%27histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
+          <t>Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Cimetière d'Almaš à Novi Sad</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le cimetière d'Almaš, à Novi Sad, abrite 14 tombes faisant partie de cet ensemble culturel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le cimetière d'Almaš, à Novi Sad, abrite 14 tombes faisant partie de cet ensemble culturel.
 Sava Ilić (1894-1950), peintre ;
 famille Lemajić et Žarko Ognjanović (1889-1957), humoriste et responsable sportif ;
 Gligorije Barusković (1841-1928), professeur aux lycées de Novi Sad et de Sremski Karlovci ;
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tombes_de_personnalit%C3%A9s_li%C3%A9es_%C3%A0_l%27histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
+          <t>Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Cimetière de la Dormition à Novi Sad</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le cimetière de la Dormition, à Novi Sad, abrite 19 tombes faisant partie de l'ensemble culturel[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le cimetière de la Dormition, à Novi Sad, abrite 19 tombes faisant partie de l'ensemble culturel.
 Blagoje Brančić (1860-1915), professeur et traducteur ;
 Filip Oberknežević (1839-1911), professeur et traducteur ;
 Vasa Eškićević (1867-1933), peintre ;
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tombes_de_personnalit%C3%A9s_li%C3%A9es_%C3%A0_l%27histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
+          <t>Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,9 +620,11 @@
           <t>Cimetière juif de Novi Sad</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux personnalités sont enterrées dans le cimetière juif de Novi Sad : Šandor Nemeš (1858-1905), mécène, avocat et défenseur de la cause hongroise, et Joška Majer (1844-1935), juriste, défenseur de la cause hongroise[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux personnalités sont enterrées dans le cimetière juif de Novi Sad : Šandor Nemeš (1858-1905), mécène, avocat et défenseur de la cause hongroise, et Joška Majer (1844-1935), juriste, défenseur de la cause hongroise.
 </t>
         </is>
       </c>
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tombes_de_personnalit%C3%A9s_li%C3%A9es_%C3%A0_l%27histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
+          <t>Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,9 +653,11 @@
           <t>Cimetière catholique de Novi Sad</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dans le cimetière catholique de Novi Sad, situé dans la rue Futoška (la « rue de Futog »), 4 tombes sont spécialement désignées[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans le cimetière catholique de Novi Sad, situé dans la rue Futoška (la « rue de Futog »), 4 tombes sont spécialement désignées,.
 Vilmoš Vilt (1875-1939), médecin qui a organisé l'ensemble hospitalier de Jodna banja à Novi Sad ;
 Feliks Parčetić (1839-1889), grand župan et noble hongrois ;
 Mikloš Estergomi (1846-1934), officier hongrois ;
@@ -651,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tombes_de_personnalit%C3%A9s_li%C3%A9es_%C3%A0_l%27histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
+          <t>Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,9 +689,11 @@
           <t>Cimetière des aviateurs de Novi Sad</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le Cimetière des aviateurs (Avijatičarsko groblje), également connu sous le nom de « Cimetière militaire de Novi Sad » (Vojno groblje), créé par la société de construction aéronautique Ikarus en 1923, s'étend sur 0,9 hectare[3]. Six tombes de ce cimetière sont classées[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Cimetière des aviateurs (Avijatičarsko groblje), également connu sous le nom de « Cimetière militaire de Novi Sad » (Vojno groblje), créé par la société de construction aéronautique Ikarus en 1923, s'étend sur 0,9 hectare. Six tombes de ce cimetière sont classées.
 Srećko Šetnik (1898-1921), pilote ;
 Vjekoslav Nikoljačić (1908-1934), pilote ;
 Jeronim Novak (1898-1933), pilote ;
@@ -687,7 +709,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tombes_de_personnalit%C3%A9s_li%C3%A9es_%C3%A0_l%27histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
+          <t>Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -705,9 +727,11 @@
           <t>Cimetière évangélique de Novi Sad</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière évangélique de Novi Sad (Evangelističko groblje) est situé rue Branka Bajića[4]. Il abrite 3 tombes classées, celles de Miloš Krno (1869-1917), juriste et homme politique défenseur des Slovaques, Janoš Nemešalji (1832-1899), éducateur, enseignant, noble hongrois et Friđeš Šnajder (1853-1922), colonel issu de l'une des plus anciennes familles allemandes de Novi Sad[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière évangélique de Novi Sad (Evangelističko groblje) est situé rue Branka Bajića. Il abrite 3 tombes classées, celles de Miloš Krno (1869-1917), juriste et homme politique défenseur des Slovaques, Janoš Nemešalji (1832-1899), éducateur, enseignant, noble hongrois et Friđeš Šnajder (1853-1922), colonel issu de l'une des plus anciennes familles allemandes de Novi Sad.
 </t>
         </is>
       </c>
@@ -718,7 +742,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tombes_de_personnalit%C3%A9s_li%C3%A9es_%C3%A0_l%27histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
+          <t>Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -736,9 +760,11 @@
           <t>Cimetière militaire de Petrovaradin</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire de Petrovaradin (Vojno groblje) est situé dans la rue Dunavske divizije (rue de la « Division du Danuble ») ; il remonte à la première moitié du XVIIIe siècle[5]. Deux tombes de ce cimetière sont classées, celle de Martin Dedović (1756-1822), vice-maréchal autrichien et commandant de la forteresse de Petrovaradin, et celle des soldats autrichiens morts au cours de la révolution de 1848-1849 à Novi Sad.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire de Petrovaradin (Vojno groblje) est situé dans la rue Dunavske divizije (rue de la « Division du Danuble ») ; il remonte à la première moitié du XVIIIe siècle. Deux tombes de ce cimetière sont classées, celle de Martin Dedović (1756-1822), vice-maréchal autrichien et commandant de la forteresse de Petrovaradin, et celle des soldats autrichiens morts au cours de la révolution de 1848-1849 à Novi Sad.
 </t>
         </is>
       </c>
@@ -749,7 +775,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tombes_de_personnalit%C3%A9s_li%C3%A9es_%C3%A0_l%27histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
+          <t>Tombes_de_personnalités_liées_à_l'histoire_de_Novi_Sad,_Petrovaradin,_Sremski_Karlovci_et_Sremska_Kamenica</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -767,9 +793,11 @@
           <t>Cimetière orthodoxe de Sremska Kamenica</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une seule tombe du cimetière orthodoxe de Sremska Kamenica, situé rue Ive Lole Ribara[6], est classée parmi les monuments culturels, celle de dix soldats inconnus exécutés à la prison de Rumenka[1].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une seule tombe du cimetière orthodoxe de Sremska Kamenica, situé rue Ive Lole Ribara, est classée parmi les monuments culturels, celle de dix soldats inconnus exécutés à la prison de Rumenka.
 </t>
         </is>
       </c>
